--- a/OnboardingTest2/OnboardingTest2/ExcelData/TestDataManageListings.xlsx
+++ b/OnboardingTest2/OnboardingTest2/ExcelData/TestDataManageListings.xlsx
@@ -4,99 +4,66 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="18340" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="17780"/>
   </bookViews>
   <sheets>
-    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageListings" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageListings" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/Home</t>
-  </si>
-  <si>
-    <t>451075672@qq.com</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Deleteaction</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>Jazz</t>
+    <t>Tags</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>Hip Hop Club</t>
+  </si>
+  <si>
+    <t>Now we change to Hip Hop Club, but no worry still welcome all kind of music lover to join!!!</t>
+  </si>
+  <si>
+    <t>All kind of music lover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,114 +219,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +410,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,160 +536,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,132 +1037,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost:5000/Home" tooltip="http://localhost:5000/Home"/>
-    <hyperlink ref="B2" r:id="rId2" display="451075672@qq.com" tooltip="mailto:451075672@qq.com"/>
-    <hyperlink ref="C2" r:id="rId3" display="abc123"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="451075672@qq.com" tooltip="mailto:451075672@qq.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="28.5454545454545" customWidth="1"/>
+    <col min="2" max="3" width="28.5454545454545" customWidth="1"/>
+    <col min="4" max="5" width="11.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45052</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45485</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12.24</v>
+      </c>
+      <c r="G2" s="4">
+        <v>19.24</v>
       </c>
     </row>
   </sheetData>

--- a/OnboardingTest2/OnboardingTest2/ExcelData/TestDataManageListings.xlsx
+++ b/OnboardingTest2/OnboardingTest2/ExcelData/TestDataManageListings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>All kind of music lover</t>
+  </si>
+  <si>
+    <t>12.24.am</t>
+  </si>
+  <si>
+    <t>19.24.pm</t>
   </si>
 </sst>
 </file>
@@ -1086,16 +1092,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>45052</v>
+        <v>45083</v>
       </c>
       <c r="E2" s="3">
         <v>45485</v>
       </c>
-      <c r="F2" s="4">
-        <v>12.24</v>
-      </c>
-      <c r="G2" s="4">
-        <v>19.24</v>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
